--- a/PageObjectModel/data/PalmOilMillIncomingDOAddWeighbridge.xlsx
+++ b/PageObjectModel/data/PalmOilMillIncomingDOAddWeighbridge.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>UserName</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Password</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>grossWeight</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>passwordgmas123</t>
   </si>
   <si>
-    <t>8765</t>
-  </si>
-  <si>
-    <t>87</t>
+    <t>DO-org</t>
+  </si>
+  <si>
+    <t>Fresh fruit bunch</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>238Tkt</t>
@@ -51,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -68,28 +80,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,51 +93,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -156,6 +101,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -165,7 +132,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,31 +154,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,6 +167,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -224,19 +236,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,37 +332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +350,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,19 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,85 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,13 +445,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,21 +465,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,21 +479,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -517,164 +503,190 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,54 +1025,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="16378" width="9" style="1"/>
+    <col min="3" max="3" width="7.55555555555556" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="16380" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/PageObjectModel/data/PalmOilMillIncomingDOAddWeighbridge.xlsx
+++ b/PageObjectModel/data/PalmOilMillIncomingDOAddWeighbridge.xlsx
@@ -64,8 +64,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -85,6 +85,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -93,6 +115,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -100,126 +220,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -236,13 +236,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,19 +356,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,139 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,30 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -487,17 +463,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,176 +525,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
